--- a/doc/数据格式/附表：产品字段和说明（20170320）.xlsx
+++ b/doc/数据格式/附表：产品字段和说明（20170320）.xlsx
@@ -1,17 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiang/Project/huaxia-messagae-manage/doc/数据格式/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7440"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240"/>
   </bookViews>
   <sheets>
     <sheet name="总表（后台全字段数据）" sheetId="1" r:id="rId1"/>
     <sheet name="主页面显示" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="BJ3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>根据产品编号进行关联的，倒入配方的时候就有一个产品编号字段</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -936,17 +973,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1004,7 +1041,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1012,7 +1049,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1038,6 +1075,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1082,29 +1126,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1112,23 +1156,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1136,7 +1180,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1144,11 +1188,11 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1243,6 +1287,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1281,9 +1328,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1345,12 +1389,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1380,12 +1424,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1588,139 +1632,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="106" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="14.5" style="9" customWidth="1"/>
-    <col min="13" max="14" width="15.25" style="9" customWidth="1"/>
+    <col min="13" max="14" width="15.1640625" style="9" customWidth="1"/>
     <col min="15" max="19" width="15.5" style="9" customWidth="1"/>
     <col min="20" max="21" width="8" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.375" style="9" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" style="9" customWidth="1"/>
     <col min="24" max="27" width="8" style="9" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9" style="9"/>
-    <col min="29" max="29" width="13.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.375" style="9" customWidth="1"/>
-    <col min="33" max="33" width="4.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.83203125" style="9"/>
+    <col min="29" max="29" width="13.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.33203125" style="9" customWidth="1"/>
+    <col min="33" max="33" width="4.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="34" max="35" width="15" style="9" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.625" style="9" customWidth="1"/>
+    <col min="36" max="36" width="18.6640625" style="9" customWidth="1"/>
     <col min="37" max="38" width="15" style="9" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="13.5" style="9" customWidth="1"/>
-    <col min="41" max="41" width="11.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="16.125" style="9" customWidth="1"/>
-    <col min="43" max="44" width="11.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.1640625" style="9" customWidth="1"/>
+    <col min="43" max="44" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="15" style="9" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="15" style="9" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="11.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="15" style="9" bestFit="1" customWidth="1"/>
     <col min="52" max="54" width="8" style="9" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="11.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="9" style="9"/>
-    <col min="58" max="58" width="9.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="9" style="9"/>
+    <col min="55" max="55" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="8.83203125" style="9"/>
+    <col min="58" max="58" width="9.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="8.83203125" style="9"/>
     <col min="60" max="60" width="8" style="9" bestFit="1" customWidth="1"/>
-    <col min="61" max="16384" width="9" style="9"/>
+    <col min="61" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="24" customHeight="1">
+    <row r="1" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="40" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="40" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="36" t="s">
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="36" t="s">
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="36" t="s">
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38"/>
+      <c r="AW1" s="38"/>
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="38"/>
+      <c r="AZ1" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="BA1" s="37"/>
-      <c r="BB1" s="37"/>
-      <c r="BC1" s="37"/>
-      <c r="BD1" s="37"/>
-      <c r="BE1" s="37"/>
-      <c r="BF1" s="37"/>
-      <c r="BG1" s="37"/>
-      <c r="BH1" s="37"/>
-      <c r="BI1" s="32" t="s">
+      <c r="BA1" s="38"/>
+      <c r="BB1" s="38"/>
+      <c r="BC1" s="38"/>
+      <c r="BD1" s="38"/>
+      <c r="BE1" s="38"/>
+      <c r="BF1" s="38"/>
+      <c r="BG1" s="38"/>
+      <c r="BH1" s="38"/>
+      <c r="BI1" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="BJ1" s="33"/>
-    </row>
-    <row r="2" spans="1:62" ht="24" customHeight="1">
+      <c r="BJ1" s="34"/>
+    </row>
+    <row r="2" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>193</v>
       </c>
@@ -1908,7 +1952,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:62" ht="24" customHeight="1">
+    <row r="3" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>229</v>
       </c>
@@ -1996,14 +2040,14 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:62" ht="24" customHeight="1">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="39"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="18"/>
     </row>
-    <row r="6" spans="1:62" ht="24" customHeight="1">
+    <row r="6" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>54</v>
       </c>
@@ -2011,7 +2055,7 @@
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
     </row>
-    <row r="7" spans="1:62" s="17" customFormat="1" ht="24" customHeight="1">
+    <row r="7" spans="1:62" s="17" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
         <v>109</v>
       </c>
@@ -2025,7 +2069,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:62" ht="24" customHeight="1">
+    <row r="8" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="30" t="s">
         <v>74</v>
       </c>
@@ -2039,7 +2083,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:62" ht="24" customHeight="1">
+    <row r="9" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="30" t="s">
         <v>83</v>
       </c>
@@ -2051,7 +2095,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:62" ht="24" customHeight="1">
+    <row r="10" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="30"/>
       <c r="B10" s="4" t="s">
         <v>113</v>
@@ -2061,7 +2105,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:62" ht="24" customHeight="1">
+    <row r="11" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="30"/>
       <c r="B11" s="4" t="s">
         <v>114</v>
@@ -2071,7 +2115,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:62" ht="24" customHeight="1">
+    <row r="12" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="30"/>
       <c r="B12" s="4" t="s">
         <v>115</v>
@@ -2083,7 +2127,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:62" ht="24" customHeight="1">
+    <row r="13" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="30"/>
       <c r="B13" s="4" t="s">
         <v>116</v>
@@ -2095,9 +2139,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:62" ht="24" customHeight="1">
+    <row r="14" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="30"/>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="32" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="30" t="s">
@@ -2107,7 +2151,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:62" ht="24" customHeight="1">
+    <row r="15" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="30"/>
       <c r="B15" s="4" t="s">
         <v>1</v>
@@ -2119,7 +2163,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:62" ht="24" customHeight="1">
+    <row r="16" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="30" t="s">
         <v>86</v>
       </c>
@@ -2131,7 +2175,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="24" customHeight="1">
+    <row r="17" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="30"/>
       <c r="B17" s="4" t="s">
         <v>117</v>
@@ -2141,7 +2185,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="24" customHeight="1">
+    <row r="18" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="30"/>
       <c r="B18" s="4" t="s">
         <v>118</v>
@@ -2151,7 +2195,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="24" customHeight="1">
+    <row r="19" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="30"/>
       <c r="B19" s="4" t="s">
         <v>119</v>
@@ -2161,7 +2205,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="24" customHeight="1">
+    <row r="20" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="30"/>
       <c r="B20" s="4" t="s">
         <v>218</v>
@@ -2171,7 +2215,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="24" customHeight="1">
+    <row r="21" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="30"/>
       <c r="B21" s="4" t="s">
         <v>120</v>
@@ -2181,7 +2225,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="24" customHeight="1">
+    <row r="22" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="30"/>
       <c r="B22" s="4" t="s">
         <v>121</v>
@@ -2191,7 +2235,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="24" customHeight="1">
+    <row r="23" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="30"/>
       <c r="B23" s="4" t="s">
         <v>122</v>
@@ -2201,7 +2245,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="24" customHeight="1">
+    <row r="24" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="30"/>
       <c r="B24" s="4" t="s">
         <v>123</v>
@@ -2211,7 +2255,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="24" customHeight="1">
+    <row r="25" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="30"/>
       <c r="B25" s="4" t="s">
         <v>124</v>
@@ -2221,7 +2265,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="24" customHeight="1">
+    <row r="26" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="30"/>
       <c r="B26" s="4" t="s">
         <v>125</v>
@@ -2231,7 +2275,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="24" customHeight="1">
+    <row r="27" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="30" t="s">
         <v>87</v>
       </c>
@@ -2242,10 +2286,10 @@
         <v>97</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="24" customHeight="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="30"/>
       <c r="B28" s="4" t="s">
         <v>5</v>
@@ -2255,17 +2299,17 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="24" customHeight="1">
+    <row r="29" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="30"/>
       <c r="B29" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="24" customHeight="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="30"/>
       <c r="B30" s="4" t="s">
         <v>196</v>
@@ -2277,7 +2321,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="24" customHeight="1">
+    <row r="31" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="30"/>
       <c r="B31" s="5" t="s">
         <v>186</v>
@@ -2289,7 +2333,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="24" customHeight="1">
+    <row r="32" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="30" t="s">
         <v>84</v>
       </c>
@@ -2303,7 +2347,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="24" customHeight="1">
+    <row r="33" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="30"/>
       <c r="B33" s="5" t="s">
         <v>58</v>
@@ -2313,7 +2357,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="24" customHeight="1">
+    <row r="34" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="30" t="s">
         <v>102</v>
       </c>
@@ -2325,7 +2369,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="24" customHeight="1">
+    <row r="35" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="30"/>
       <c r="B35" s="30" t="s">
         <v>60</v>
@@ -2335,7 +2379,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="24" customHeight="1">
+    <row r="36" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="30"/>
       <c r="B36" s="30" t="s">
         <v>61</v>
@@ -2345,7 +2389,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="24" customHeight="1">
+    <row r="37" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="30"/>
       <c r="B37" s="30" t="s">
         <v>31</v>
@@ -2357,7 +2401,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="24" customHeight="1">
+    <row r="38" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="30"/>
       <c r="B38" s="30" t="s">
         <v>165</v>
@@ -2369,7 +2413,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="24" customHeight="1">
+    <row r="39" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="30"/>
       <c r="B39" s="30" t="s">
         <v>166</v>
@@ -2379,7 +2423,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="24" customHeight="1">
+    <row r="40" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="30"/>
       <c r="B40" s="30" t="s">
         <v>62</v>
@@ -2389,7 +2433,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="24" customHeight="1">
+    <row r="41" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="30"/>
       <c r="B41" s="30" t="s">
         <v>63</v>
@@ -2399,7 +2443,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="24" customHeight="1">
+    <row r="42" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="30"/>
       <c r="B42" s="30" t="s">
         <v>203</v>
@@ -2409,7 +2453,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="24" customHeight="1">
+    <row r="43" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="30"/>
       <c r="B43" s="5" t="s">
         <v>221</v>
@@ -2419,7 +2463,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="24" customHeight="1">
+    <row r="44" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="30"/>
       <c r="B44" s="30" t="s">
         <v>64</v>
@@ -2429,7 +2473,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="24" customHeight="1">
+    <row r="45" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="30"/>
       <c r="B45" s="30" t="s">
         <v>199</v>
@@ -2439,7 +2483,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="24" customHeight="1">
+    <row r="46" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="30"/>
       <c r="B46" s="5" t="s">
         <v>222</v>
@@ -2449,7 +2493,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="24" customHeight="1">
+    <row r="47" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="30"/>
       <c r="B47" s="30" t="s">
         <v>209</v>
@@ -2459,7 +2503,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="24" customHeight="1">
+    <row r="48" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="30"/>
       <c r="B48" s="30" t="s">
         <v>210</v>
@@ -2469,7 +2513,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="24" customHeight="1">
+    <row r="49" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="30"/>
       <c r="B49" s="5" t="s">
         <v>128</v>
@@ -2479,7 +2523,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="24" customHeight="1">
+    <row r="50" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="30"/>
       <c r="B50" s="30" t="s">
         <v>211</v>
@@ -2489,7 +2533,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="24" customHeight="1">
+    <row r="51" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="30"/>
       <c r="B51" s="30" t="s">
         <v>226</v>
@@ -2499,7 +2543,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="24" customHeight="1">
+    <row r="52" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="30"/>
       <c r="B52" s="5" t="s">
         <v>223</v>
@@ -2509,7 +2553,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="24" customHeight="1">
+    <row r="53" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="30"/>
       <c r="B53" s="30" t="s">
         <v>200</v>
@@ -2519,7 +2563,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="24" customHeight="1">
+    <row r="54" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="30"/>
       <c r="B54" s="30" t="s">
         <v>212</v>
@@ -2529,7 +2573,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="24" customHeight="1">
+    <row r="55" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="30"/>
       <c r="B55" s="5" t="s">
         <v>129</v>
@@ -2539,7 +2583,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="24" customHeight="1">
+    <row r="56" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="30"/>
       <c r="B56" s="30" t="s">
         <v>213</v>
@@ -2549,7 +2593,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="24" customHeight="1">
+    <row r="57" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="30"/>
       <c r="B57" s="30" t="s">
         <v>227</v>
@@ -2559,7 +2603,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="24" customHeight="1">
+    <row r="58" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="30"/>
       <c r="B58" s="5" t="s">
         <v>130</v>
@@ -2569,7 +2613,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="24" customHeight="1">
+    <row r="59" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="30" t="s">
         <v>85</v>
       </c>
@@ -2581,7 +2625,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="24" customHeight="1">
+    <row r="60" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="30"/>
       <c r="B60" s="30" t="s">
         <v>69</v>
@@ -2591,7 +2635,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="24" customHeight="1">
+    <row r="61" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="30"/>
       <c r="B61" s="30" t="s">
         <v>70</v>
@@ -2601,7 +2645,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="24" customHeight="1">
+    <row r="62" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="30"/>
       <c r="B62" s="30" t="s">
         <v>214</v>
@@ -2611,7 +2655,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="24" customHeight="1">
+    <row r="63" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="30"/>
       <c r="B63" s="30" t="s">
         <v>71</v>
@@ -2621,7 +2665,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="24" customHeight="1">
+    <row r="64" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="30"/>
       <c r="B64" s="30" t="s">
         <v>72</v>
@@ -2633,7 +2677,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="24" customHeight="1">
+    <row r="65" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="30"/>
       <c r="B65" s="30" t="s">
         <v>215</v>
@@ -2643,7 +2687,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="24" customHeight="1">
+    <row r="66" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="30"/>
       <c r="B66" s="30" t="s">
         <v>73</v>
@@ -2653,7 +2697,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="24" customHeight="1">
+    <row r="67" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="30"/>
       <c r="B67" s="30" t="s">
         <v>216</v>
@@ -2663,7 +2707,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="24" customHeight="1">
+    <row r="68" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="30" t="s">
         <v>82</v>
       </c>
@@ -2677,7 +2721,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="24" customHeight="1">
+    <row r="69" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="30"/>
       <c r="B69" s="30" t="s">
         <v>189</v>
@@ -2689,13 +2733,13 @@
         <v>191</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="24" customHeight="1">
+    <row r="70" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="31"/>
       <c r="B70" s="31"/>
       <c r="C70" s="31"/>
       <c r="D70" s="31"/>
     </row>
-    <row r="71" spans="1:4" ht="24" customHeight="1">
+    <row r="71" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="31"/>
       <c r="B71" s="31" t="s">
         <v>205</v>
@@ -2705,7 +2749,7 @@
       </c>
       <c r="D71" s="31"/>
     </row>
-    <row r="72" spans="1:4" ht="24" customHeight="1">
+    <row r="72" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="s">
         <v>110</v>
       </c>
@@ -2717,7 +2761,7 @@
       </c>
       <c r="D72" s="19"/>
     </row>
-    <row r="73" spans="1:4" ht="24" customHeight="1">
+    <row r="73" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="19" t="s">
         <v>111</v>
       </c>
@@ -2729,7 +2773,7 @@
       </c>
       <c r="D73" s="19"/>
     </row>
-    <row r="74" spans="1:4" ht="24" customHeight="1">
+    <row r="74" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="19" t="s">
         <v>112</v>
       </c>
@@ -2741,7 +2785,7 @@
       </c>
       <c r="D74" s="19"/>
     </row>
-    <row r="75" spans="1:4" ht="24" customHeight="1">
+    <row r="75" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
         <v>175</v>
       </c>
@@ -2768,6 +2812,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2775,23 +2820,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24" customHeight="1">
+    <row r="1" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -2820,7 +2865,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="24" customHeight="1">
+    <row r="2" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>157</v>
       </c>
@@ -2849,97 +2894,97 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="24" customHeight="1">
+    <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="24" customHeight="1">
+    <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="10" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="24" customHeight="1">
+    <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
       <c r="J6" s="25">
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="24" customHeight="1">
+    <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
       <c r="J7" s="25">
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="24" customHeight="1">
+    <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
       <c r="J8" s="25">
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="24" customHeight="1">
+    <row r="9" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
       <c r="J9" s="25">
         <v>0.8</v>
       </c>
@@ -2947,20 +2992,20 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="24" customHeight="1">
+    <row r="10" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
       <c r="J10" s="25">
         <v>1</v>
       </c>
@@ -2968,20 +3013,20 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="24" customHeight="1">
+    <row r="11" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
       <c r="J11" s="25">
         <v>1</v>
       </c>
@@ -2989,20 +3034,20 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="24" customHeight="1">
+    <row r="12" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
       <c r="J12" s="25">
         <v>1</v>
       </c>
@@ -3010,14 +3055,14 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="24" customHeight="1">
+    <row r="14" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
     </row>
-    <row r="15" spans="1:11" ht="24" customHeight="1">
+    <row r="15" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="21" t="s">
         <v>154</v>
       </c>
@@ -3032,54 +3077,54 @@
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
     </row>
-    <row r="16" spans="1:11" ht="45.75" customHeight="1">
+    <row r="16" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="41" t="s">
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="1:9" ht="53.25" customHeight="1">
+    <row r="17" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="41" t="s">
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
     </row>
-    <row r="18" spans="1:9" ht="24" customHeight="1">
+    <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="41" t="s">
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
     </row>

--- a/doc/数据格式/附表：产品字段和说明（20170320）.xlsx
+++ b/doc/数据格式/附表：产品字段和说明（20170320）.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="总表（后台全字段数据）" sheetId="1" r:id="rId1"/>
@@ -44,6 +44,30 @@
             <charset val="128"/>
           </rPr>
           <t>根据产品编号进行关联的，倒入配方的时候就有一个产品编号字段</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>如果同时选择了两项，按哪个进度进行判断？？</t>
         </r>
       </text>
     </comment>
@@ -1200,7 +1224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1320,13 +1344,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1635,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="106" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView topLeftCell="A43" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="106" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2817,11 +2847,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2903,16 +2933,16 @@
       <c r="A5" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
       <c r="J5" s="10" t="s">
         <v>155</v>
       </c>
@@ -2993,19 +3023,19 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="25">
         <v>1</v>
       </c>
@@ -3014,19 +3044,19 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
       <c r="J11" s="25">
         <v>1</v>
       </c>
@@ -3035,19 +3065,19 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
       <c r="J12" s="25">
         <v>1</v>
       </c>
@@ -3084,13 +3114,13 @@
       <c r="B16" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
     </row>
@@ -3101,13 +3131,13 @@
       <c r="B17" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
     </row>
@@ -3118,18 +3148,24 @@
       <c r="B18" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
       <c r="E18" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B12:I12"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="B6:I6"/>
@@ -3138,15 +3174,10 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B11:I11"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/数据格式/附表：产品字段和说明（20170320）.xlsx
+++ b/doc/数据格式/附表：产品字段和说明（20170320）.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="总表（后台全字段数据）" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
             <rFont val="ＭＳ Ｐゴシック"/>
             <charset val="128"/>
           </rPr>
-          <t>如果同时选择了两项，按哪个进度进行判断？？</t>
+          <t>如果同时选择了两项，按哪个进度进行判断，以后面的为主</t>
         </r>
       </text>
     </comment>
@@ -960,36 +960,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>人体送检数量</t>
+  </si>
+  <si>
+    <t>人体送检数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险送检数量</t>
+  </si>
+  <si>
+    <t>产品编号、英文名称、中文名称、原产国、类别、工作事项、产品负责人、项目负责人、申请企业、立项时间、合同编号、合同签订时间、来款公司、送检总数、生产日期或批号、保质期或限期使用日期、保质期、行政许可送检时间、行政许可检验机构、行政许可检验受理编号、行政许可检验项目、行政许可送检数量、行政许可报告到达时间、人体检验送检时间、人体检验机构、人体检验受理编号、人体检验项目、人体送检数量、人体报告到达时间、风险检验送检时间、风险检验机构、风险检验受理编号、风险检验项目、风险送检数量、风险报告到达时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J20170001-PFS-ZC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政许可报告到达时间选择后显示，倒计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复意见，剩15天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过15天后变为红色叹号标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>来款时间、来样时间、样品数量、行政许可送检时间、行政许可检验机构、行政许可检验项目、行政许可报告到达时间、人体检验送检时间、人体检验机构、人体检验项目、人体报告到达时间、风险检验送检时间、风险检验机构、风险检验项目、风险报告到达时间、申报时间、取得批件时间、状态备注、下意见时间、回复时间、其他说明</t>
-  </si>
-  <si>
-    <t>人体送检数量</t>
-  </si>
-  <si>
-    <t>人体送检数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风险送检数量</t>
-  </si>
-  <si>
-    <t>产品编号、英文名称、中文名称、原产国、类别、工作事项、产品负责人、项目负责人、申请企业、立项时间、合同编号、合同签订时间、来款公司、送检总数、生产日期或批号、保质期或限期使用日期、保质期、行政许可送检时间、行政许可检验机构、行政许可检验受理编号、行政许可检验项目、行政许可送检数量、行政许可报告到达时间、人体检验送检时间、人体检验机构、人体检验受理编号、人体检验项目、人体送检数量、人体报告到达时间、风险检验送检时间、风险检验机构、风险检验受理编号、风险检验项目、风险送检数量、风险报告到达时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J20170001-PFS-ZC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>行政许可报告到达时间选择后显示，倒计时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复意见，剩15天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超过15天后变为红色叹号标记</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1314,6 +1315,9 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1341,22 +1345,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1665,8 +1666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ75"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="106" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="106" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1718,81 +1719,81 @@
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="41" t="s">
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="37" t="s">
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="37" t="s">
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="38"/>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="38"/>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="38"/>
-      <c r="AV1" s="38"/>
-      <c r="AW1" s="38"/>
-      <c r="AX1" s="38"/>
-      <c r="AY1" s="38"/>
-      <c r="AZ1" s="37" t="s">
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="39"/>
+      <c r="AP1" s="39"/>
+      <c r="AQ1" s="39"/>
+      <c r="AR1" s="39"/>
+      <c r="AS1" s="39"/>
+      <c r="AT1" s="39"/>
+      <c r="AU1" s="39"/>
+      <c r="AV1" s="39"/>
+      <c r="AW1" s="39"/>
+      <c r="AX1" s="39"/>
+      <c r="AY1" s="39"/>
+      <c r="AZ1" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="BA1" s="38"/>
-      <c r="BB1" s="38"/>
-      <c r="BC1" s="38"/>
-      <c r="BD1" s="38"/>
-      <c r="BE1" s="38"/>
-      <c r="BF1" s="38"/>
-      <c r="BG1" s="38"/>
-      <c r="BH1" s="38"/>
-      <c r="BI1" s="33" t="s">
+      <c r="BA1" s="39"/>
+      <c r="BB1" s="39"/>
+      <c r="BC1" s="39"/>
+      <c r="BD1" s="39"/>
+      <c r="BE1" s="39"/>
+      <c r="BF1" s="39"/>
+      <c r="BG1" s="39"/>
+      <c r="BH1" s="39"/>
+      <c r="BI1" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="BJ1" s="34"/>
+      <c r="BJ1" s="35"/>
     </row>
     <row r="2" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1925,7 +1926,7 @@
         <v>12</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AS2" s="2" t="s">
         <v>50</v>
@@ -1943,7 +1944,7 @@
         <v>15</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AY2" s="2" t="s">
         <v>51</v>
@@ -1984,7 +1985,7 @@
     </row>
     <row r="3" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>17</v>
@@ -2071,10 +2072,10 @@
       </c>
     </row>
     <row r="4" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="18"/>
     </row>
     <row r="6" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -2566,7 +2567,7 @@
     <row r="51" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="30"/>
       <c r="B51" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C51" s="30"/>
       <c r="D51" s="30" t="s">
@@ -2626,7 +2627,7 @@
     <row r="57" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="30"/>
       <c r="B57" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C57" s="30"/>
       <c r="D57" s="30" t="s">
@@ -2787,7 +2788,7 @@
         <v>204</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D72" s="19"/>
     </row>
@@ -2811,7 +2812,7 @@
         <v>208</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D74" s="19"/>
     </row>
@@ -2850,8 +2851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2933,16 +2934,16 @@
       <c r="A5" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="10" t="s">
         <v>155</v>
       </c>
@@ -2951,16 +2952,16 @@
       <c r="A6" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
       <c r="J6" s="25">
         <v>0.2</v>
       </c>
@@ -2969,16 +2970,16 @@
       <c r="A7" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="25">
         <v>0.4</v>
       </c>
@@ -2987,16 +2988,16 @@
       <c r="A8" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
       <c r="J8" s="25">
         <v>0.6</v>
       </c>
@@ -3005,16 +3006,16 @@
       <c r="A9" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="25">
         <v>0.8</v>
       </c>
@@ -3023,19 +3024,19 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
       <c r="J10" s="25">
         <v>1</v>
       </c>
@@ -3044,19 +3045,19 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
       <c r="J11" s="25">
         <v>1</v>
       </c>
@@ -3065,19 +3066,19 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
       <c r="J12" s="25">
         <v>1</v>
       </c>
@@ -3111,16 +3112,16 @@
       <c r="A16" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="42" t="s">
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
     </row>
@@ -3128,33 +3129,33 @@
       <c r="A17" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="B17" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="42" t="s">
+      <c r="B17" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
     </row>
     <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="B18" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
     </row>

--- a/doc/数据格式/附表：产品字段和说明（20170320）.xlsx
+++ b/doc/数据格式/附表：产品字段和说明（20170320）.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="总表（后台全字段数据）" sheetId="1" r:id="rId1"/>
@@ -283,714 +283,721 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>取得批件时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总表字段说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来样时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样品数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送检总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色性状</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产日期或批号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政许可送检时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政许可检验项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申报时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下意见时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申报时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受理时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受理编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批件编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意见内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、产品基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、企业基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、合同情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、样品管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、检验管理（含一般项目、人体、风险）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、产品申报管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8、其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、产品基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、样品管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、产品申报管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、企业基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、合同情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动录入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动录入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉菜单点选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示特殊产品类别、变更内容等信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示项目负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动录入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品确认启动的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色为市场部填写、白色为申报部填写、绿色为综合部填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动加和，行政许可送检数量+人体送检数量+风险送检数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原产国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、检验管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动录入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日历点选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日历点选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示列表信息外所有关于产品的说明内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示“通过审批”或“不予批准”或“终止申报”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉菜单点选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9、市场部数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10、申报部数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11、综合部数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原产国</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作事项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请企业地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请企业电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请企业联系人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际生产企业地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在华责任单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在华责任单位地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在华责任单位电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在华责任单位传真</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在华责任单位邮编</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>立项时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同签订时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人体检验受理编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险检验受理编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险报告到达时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目进度说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅立项时间一项有日期数据</t>
+  </si>
+  <si>
+    <t>立项时间和来样时间两项有日期数据</t>
+  </si>
+  <si>
+    <t>备注有“终止申报”字段</t>
+  </si>
+  <si>
+    <t>立项时间、来样时间、申报时间三项有日期数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作事项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品负责人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目进度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>判定项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办理时限说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送检，剩7天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态 显示内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办理时限 显示内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目进度条显示比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总表关联</t>
+  </si>
+  <si>
+    <t>总表关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示进度条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示当前状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示办理状态和剩余时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申报，剩7天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下意见时间选择后显示，倒计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示产品编号，类别代码+四位年份+四位流水+企业代码+产品负责人代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气味</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保质期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气味</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术要求中显示的保质期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原包装标注的保质期或限期使用日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示“非特”或“特殊”或“延续”或“变更”或“其他”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年份、流水自动生成（生成锁定），类别代码、企业代码、产品负责人代码手动录入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示产品制作人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首付款到账的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样品到齐的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12、全部数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得批件时间项有日期数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下意见时间项有日期数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注有“不予批准”字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙色标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰色标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来样时间选择后显示，倒计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过7天后变为红色叹号标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过7天后变为红色叹号标记，如填写后续送人体检验时间则停止计算，填写人体报告到达时间重新计算7天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来款时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品配方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品配方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示“点击查看”链接，点击后显示本产品比对完成后的产品配方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>来款单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来款单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付合同款项的单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示总表内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政许可送检数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险检验送检时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人体检验送检时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险检验送检时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政许可检验机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格红色部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示且可编辑部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示但不可编辑部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格白色部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格绿色部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人体检验送检时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人体检验机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人体检验项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险检验机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险检验项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得批件时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下意见时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际生产企业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品编号、英文名称、中文名称、原产国、类别、工作事项、申请企业、申请企业地址、实际生产企业、实际生产企业地址、在华责任单位、在华责任单位地址、来样时间、样品数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产日期或批号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政许可检验受理编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政许可报告到达时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人体报告到达时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人体送检数量</t>
+  </si>
+  <si>
+    <t>人体送检数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险送检数量</t>
+  </si>
+  <si>
+    <t>J20170001-PFS-ZC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政许可报告到达时间选择后显示，倒计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复意见，剩15天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过15天后变为红色叹号标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来款时间、来样时间、样品数量、行政许可送检时间、行政许可检验机构、行政许可检验项目、行政许可报告到达时间、人体检验送检时间、人体检验机构、人体检验项目、人体报告到达时间、风险检验送检时间、风险检验机构、风险检验项目、风险报告到达时间、申报时间、取得批件时间、状态备注、下意见时间、回复时间、其他说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品编号、英文名称、中文名称、原产国、类别、工作事项、产品负责人、å项目负责人、申请企业、立项时间、合同编号、合同签订时间、来款公司、送检总数、生产日期或批号、保质期或限期使用日期、保质期、行政许可送检时间、行政许可检验机构、行政许可检验受理编号、行政许可检验项目、行政许可送检数量、行政许可报告到达时间、人体检验送检时间、人体检验机构、人体检验受理编号、人体检验项目、人体送检数量、人体报告到达时间、风险检验送检时间、风险检验机构、风险检验受理编号、风险检验项目、风险送检数量、风险报告到达时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办理时限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送检</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得批件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不予批准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>终止申报</t>
-  </si>
-  <si>
-    <t>取得批件时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总表字段说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来样时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>样品数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>送检总数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜色性状</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产日期或批号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行政许可送检时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行政许可检验项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申报时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下意见时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申报时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受理时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受理编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>批件编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>意见内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、产品基本信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、企业基本信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、合同情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5、样品管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6、检验管理（含一般项目、人体、风险）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7、产品申报管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8、其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、产品基本信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5、样品管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7、产品申报管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、企业基本信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、合同情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动录入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动录入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉菜单点选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示特殊产品类别、变更内容等信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示项目负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动录入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品确认启动的时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色为市场部填写、白色为申报部填写、绿色为综合部填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动加和，行政许可送检数量+人体送检数量+风险送检数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原产国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6、检验管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动录入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日历点选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日历点选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示列表信息外所有关于产品的说明内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示“通过审批”或“不予批准”或“终止申报”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉菜单点选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9、市场部数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10、申报部数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11、综合部数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>原产国</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作事项</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请企业地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请企业电话</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请企业联系人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际生产企业地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在华责任单位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在华责任单位地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在华责任单位电话</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在华责任单位传真</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在华责任单位邮编</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>立项时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同签订时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人体检验受理编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风险检验受理编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风险报告到达时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目进度说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初审</t>
-  </si>
-  <si>
-    <t>仅立项时间一项有日期数据</t>
-  </si>
-  <si>
-    <t>送检</t>
-  </si>
-  <si>
-    <t>立项时间和来样时间两项有日期数据</t>
-  </si>
-  <si>
-    <t>申报</t>
-  </si>
-  <si>
-    <t>完善资料</t>
-  </si>
-  <si>
-    <t>取得批件</t>
-  </si>
-  <si>
-    <t>不予批准</t>
-  </si>
-  <si>
-    <t>备注有“终止申报”字段</t>
-  </si>
-  <si>
-    <t>立项时间、来样时间、申报时间三项有日期数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作事项</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品负责人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目进度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>判定项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>办理时限说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>办理时限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>送检，剩7天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态 显示内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>办理时限 显示内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目进度条显示比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总表关联</t>
-  </si>
-  <si>
-    <t>总表关联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示进度条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示当前状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示办理状态和剩余时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申报，剩7天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下意见时间选择后显示，倒计时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示产品编号，类别代码+四位年份+四位流水+企业代码+产品负责人代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气味</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保质期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气味</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术要求中显示的保质期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原包装标注的保质期或限期使用日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示“非特”或“特殊”或“延续”或“变更”或“其他”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年份、流水自动生成（生成锁定），类别代码、企业代码、产品负责人代码手动录入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示产品制作人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首付款到账的时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>样品到齐的时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12、全部数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得批件时间项有日期数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下意见时间项有日期数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注有“不予批准”字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿色标记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色标记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>橙色标记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灰色标记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来样时间选择后显示，倒计时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超过7天后变为红色叹号标记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超过7天后变为红色叹号标记，如填写后续送人体检验时间则停止计算，填写人体报告到达时间重新计算7天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来款时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品配方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击查看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品配方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示“点击查看”链接，点击后显示本产品比对完成后的产品配方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统关联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>来款单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来款单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付合同款项的单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示总表内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行政许可送检数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风险检验送检时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人体检验送检时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>风险检验送检时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>行政许可检验机构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表格红色部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示且可编辑部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示但不可编辑部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表格白色部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表格绿色部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人体检验送检时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人体检验机构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人体检验项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风险检验机构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风险检验项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得批件时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下意见时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际生产企业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品编号、英文名称、中文名称、原产国、类别、工作事项、申请企业、申请企业地址、实际生产企业、实际生产企业地址、在华责任单位、在华责任单位地址、来样时间、样品数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产日期或批号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行政许可检验受理编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行政许可报告到达时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人体报告到达时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人体送检数量</t>
-  </si>
-  <si>
-    <t>人体送检数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风险送检数量</t>
-  </si>
-  <si>
-    <t>产品编号、英文名称、中文名称、原产国、类别、工作事项、产品负责人、项目负责人、申请企业、立项时间、合同编号、合同签订时间、来款公司、送检总数、生产日期或批号、保质期或限期使用日期、保质期、行政许可送检时间、行政许可检验机构、行政许可检验受理编号、行政许可检验项目、行政许可送检数量、行政许可报告到达时间、人体检验送检时间、人体检验机构、人体检验受理编号、人体检验项目、人体送检数量、人体报告到达时间、风险检验送检时间、风险检验机构、风险检验受理编号、风险检验项目、风险送检数量、风险报告到达时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J20170001-PFS-ZC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>行政许可报告到达时间选择后显示，倒计时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复意见，剩15天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超过15天后变为红色叹号标记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来款时间、来样时间、样品数量、行政许可送检时间、行政许可检验机构、行政许可检验项目、行政许可报告到达时间、人体检验送检时间、人体检验机构、人体检验项目、人体报告到达时间、风险检验送检时间、风险检验机构、风险检验项目、风险报告到达时间、申报时间、取得批件时间、状态备注、下意见时间、回复时间、其他说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1345,6 +1352,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1352,12 +1365,6 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1666,8 +1673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="106" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="106" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1717,10 +1724,10 @@
   <sheetData>
     <row r="1" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>75</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>76</v>
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
@@ -1729,7 +1736,7 @@
       <c r="G1" s="37"/>
       <c r="H1" s="35"/>
       <c r="I1" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J1" s="37"/>
       <c r="K1" s="37"/>
@@ -1742,18 +1749,18 @@
       <c r="R1" s="37"/>
       <c r="S1" s="35"/>
       <c r="T1" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U1" s="37"/>
       <c r="V1" s="37"/>
       <c r="W1" s="37"/>
       <c r="X1" s="37"/>
       <c r="Y1" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z1" s="39"/>
       <c r="AA1" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB1" s="39"/>
       <c r="AC1" s="39"/>
@@ -1780,7 +1787,7 @@
       <c r="AX1" s="39"/>
       <c r="AY1" s="39"/>
       <c r="AZ1" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BA1" s="39"/>
       <c r="BB1" s="39"/>
@@ -1791,25 +1798,25 @@
       <c r="BG1" s="39"/>
       <c r="BH1" s="39"/>
       <c r="BI1" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BJ1" s="35"/>
     </row>
     <row r="2" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>0</v>
@@ -1863,7 +1870,7 @@
         <v>6</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>7</v>
@@ -1881,16 +1888,16 @@
         <v>30</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="AD2" s="7" t="s">
         <v>31</v>
       </c>
       <c r="AE2" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="AF2" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="AG2" s="7" t="s">
         <v>32</v>
@@ -1914,7 +1921,7 @@
         <v>49</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="AO2" s="2" t="s">
         <v>11</v>
@@ -1926,13 +1933,13 @@
         <v>12</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AS2" s="2" t="s">
         <v>50</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="AU2" s="2" t="s">
         <v>14</v>
@@ -1944,13 +1951,13 @@
         <v>15</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="AY2" s="2" t="s">
         <v>51</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BA2" s="2" t="s">
         <v>28</v>
@@ -1959,7 +1966,7 @@
         <v>26</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="BD2" s="2" t="s">
         <v>25</v>
@@ -1968,24 +1975,24 @@
         <v>29</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BG2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>17</v>
@@ -1994,7 +2001,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>19</v>
@@ -2068,19 +2075,19 @@
       <c r="BH3" s="8"/>
       <c r="BI3" s="26"/>
       <c r="BJ3" s="28" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="41"/>
       <c r="C4" s="18"/>
     </row>
     <row r="6" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -2088,86 +2095,86 @@
     </row>
     <row r="7" spans="1:62" s="17" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="D7" s="29" t="s">
         <v>89</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C8" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>163</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="30"/>
       <c r="B10" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="30"/>
       <c r="B11" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="30"/>
       <c r="B12" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="30"/>
       <c r="B13" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -2176,10 +2183,10 @@
         <v>42</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -2188,136 +2195,136 @@
         <v>1</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="30"/>
       <c r="B17" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="30"/>
       <c r="B18" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="30"/>
       <c r="B19" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="30"/>
       <c r="B20" s="4" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="30"/>
       <c r="B21" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="30"/>
       <c r="B22" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="30"/>
       <c r="B23" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C23" s="30"/>
       <c r="D23" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="30"/>
       <c r="B24" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="30"/>
       <c r="B25" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="30"/>
       <c r="B26" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -2327,97 +2334,97 @@
       </c>
       <c r="C28" s="30"/>
       <c r="D28" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="30"/>
       <c r="B29" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="30"/>
       <c r="B30" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="30"/>
       <c r="B31" s="5" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="30"/>
       <c r="B33" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" s="30"/>
       <c r="D34" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="30"/>
       <c r="B35" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="30"/>
       <c r="B36" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="30"/>
       <c r="D36" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -2426,342 +2433,342 @@
         <v>31</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="30"/>
       <c r="B38" s="30" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="30"/>
       <c r="B39" s="30" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C39" s="30"/>
       <c r="D39" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="30"/>
       <c r="B40" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="30"/>
       <c r="D40" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="30"/>
       <c r="B41" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" s="30"/>
       <c r="D41" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="30"/>
       <c r="B42" s="30" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C42" s="30"/>
       <c r="D42" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="30"/>
       <c r="B43" s="5" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C43" s="30"/>
       <c r="D43" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="30"/>
       <c r="B44" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44" s="30"/>
       <c r="D44" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="30"/>
       <c r="B45" s="30" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C45" s="30"/>
       <c r="D45" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="30"/>
       <c r="B46" s="5" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C46" s="30"/>
       <c r="D46" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="30"/>
       <c r="B47" s="30" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C47" s="30"/>
       <c r="D47" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="30"/>
       <c r="B48" s="30" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C48" s="30"/>
       <c r="D48" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="30"/>
       <c r="B49" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C49" s="30"/>
       <c r="D49" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="30"/>
       <c r="B50" s="30" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C50" s="30"/>
       <c r="D50" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="30"/>
       <c r="B51" s="30" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C51" s="30"/>
       <c r="D51" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="30"/>
       <c r="B52" s="5" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C52" s="30"/>
       <c r="D52" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="30"/>
       <c r="B53" s="30" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C53" s="30"/>
       <c r="D53" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="30"/>
       <c r="B54" s="30" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C54" s="30"/>
       <c r="D54" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="30"/>
       <c r="B55" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C55" s="30"/>
       <c r="D55" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="30"/>
       <c r="B56" s="30" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C56" s="30"/>
       <c r="D56" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="30"/>
       <c r="B57" s="30" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C57" s="30"/>
       <c r="D57" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="30"/>
       <c r="B58" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C58" s="30"/>
       <c r="D58" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C59" s="30"/>
       <c r="D59" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="30"/>
       <c r="B60" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C60" s="30"/>
       <c r="D60" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="30"/>
       <c r="B61" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C61" s="30"/>
       <c r="D61" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="30"/>
       <c r="B62" s="30" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C62" s="30"/>
       <c r="D62" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="30"/>
       <c r="B63" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C63" s="30"/>
       <c r="D63" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="30"/>
       <c r="B64" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C64" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64" s="30" t="s">
         <v>107</v>
-      </c>
-      <c r="D64" s="30" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="30"/>
       <c r="B65" s="30" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C65" s="30"/>
       <c r="D65" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="30"/>
       <c r="B66" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C66" s="30"/>
       <c r="D66" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="30"/>
       <c r="B67" s="30" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C67" s="30"/>
       <c r="D67" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B68" s="30" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C68" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="30"/>
       <c r="B69" s="30" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C69" s="30" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -2773,55 +2780,55 @@
     <row r="71" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="31"/>
       <c r="B71" s="31" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D71" s="31"/>
     </row>
     <row r="72" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D72" s="19"/>
     </row>
     <row r="73" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D73" s="19"/>
     </row>
     <row r="74" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D74" s="19"/>
     </row>
     <row r="75" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2852,7 +2859,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E16" sqref="E16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2869,236 +2876,236 @@
   <sheetData>
     <row r="1" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>151</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+        <v>145</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
       <c r="J5" s="10" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
+        <v>226</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="25">
         <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
+        <v>227</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="25">
         <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
+        <v>228</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
       <c r="J8" s="25">
         <v>0.6</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
+        <v>229</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="25">
         <v>0.8</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
+        <v>230</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
       <c r="J10" s="25">
         <v>1</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
+        <v>231</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
       <c r="J11" s="25">
         <v>1</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
+        <v>232</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
       <c r="J12" s="25">
         <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="21" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
@@ -3110,63 +3117,57 @@
     </row>
     <row r="16" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
+        <v>144</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
+        <v>153</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
     </row>
     <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
+        <v>221</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B12:I12"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="B6:I6"/>
@@ -3175,6 +3176,12 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B11:I11"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
